--- a/TimeConversionFunctions.xlsx
+++ b/TimeConversionFunctions.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Excel Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56732C15-987C-1143-8A9E-64D401BDA7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8AB63-8827-4842-9A39-62E2F77F08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="2300" windowWidth="27700" windowHeight="16940" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
+    <workbookView xWindow="5540" yWindow="2300" windowWidth="32060" windowHeight="16940" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DECTIME">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365.25) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), _xlpm.result))</definedName>
-    <definedName name="DECTIMEF">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365.25) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), FIXED(_xlpm.result, 9) &amp; LOWER(_xlpm.code)))</definedName>
-    <definedName name="EXPTIMEF">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, ROUND(MOD(_xlpm.totalSeconds, 60), _xlpm.decimalPlaces), _xlpm.formattedY, TEXT(_xlpm.y, "00"), _xlpm.formattedD, TEXT(_xlpm.d, "00"), _xlpm.formattedH, TEXT(_xlpm.h, "00"), _xlpm.formattedM, TEXT(_xlpm.m, "00"), _xlpm.formattedS, _xlpm.s, _xlpm.formatNumeric, _xlfn.TEXTJOIN(":", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatNumeric, "Invalid Input")))</definedName>
-    <definedName name="EXPTIMET">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, ROUND(MOD(_xlpm.totalSeconds, 60), _xlpm.decimalPlaces), _xlpm.formattedY, _xlpm.y &amp; "y", _xlpm.formattedD, _xlpm.d &amp; "d", _xlpm.formattedH, _xlpm.h &amp; "h", _xlpm.formattedM, _xlpm.m &amp; "m", _xlpm.formattedS, _xlpm.s &amp; "s", _xlpm.formatText, _xlfn.TEXTJOIN(" ", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatText, "Invalid Input")))</definedName>
+    <definedName name="DECTIME">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), _xlpm.result))</definedName>
+    <definedName name="DECTIMEF">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), FIXED(_xlpm.result, 9) &amp; LOWER(_xlpm.code)))</definedName>
+    <definedName name="EXPTIMEF">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.decimalPlaces, _xlfn.LET(_xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 1440, "S", 60, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.rawS, MOD(_xlpm.totalSeconds, 60), _xlpm.totalMinutes, INT(_xlpm.totalSeconds / 60), _xlpm.rawM, MOD(_xlpm.totalMinutes, 60), _xlpm.totalHours, INT(_xlpm.totalMinutes / 60), _xlpm.rawH, MOD(_xlpm.totalHours, 24), _xlpm.totalDays, INT(_xlpm.totalHours / 24), _xlpm.rawD, MOD(_xlpm.totalDays, 365.25), _xlpm.rawY, INT(_xlpm.totalDays / 365.25), _xlpm.carryH, IF(_xlpm.rawM &gt;= 60, 1, 0), _xlpm.m, IF(_xlpm.rawM &gt;= 60, 0, _xlpm.rawM), _xlpm.carryD, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 1, 0), _xlpm.h, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 0, _xlpm.rawH + _xlpm.carryH), _xlpm.carryY, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 1, 0), _xlpm.d, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 0, _xlpm.rawD + _xlpm.carryD), _xlpm.y, _xlpm.rawY + _xlpm.carryY, TEXT(_xlpm.y, "00") &amp; ":" &amp; TEXT(_xlpm.d, "000") &amp; ":" &amp; TEXT(_xlpm.h, "00") &amp; ":" &amp; TEXT(_xlpm.m, "00") &amp; ":" &amp; INT(_xlpm.rawS * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces))</definedName>
+    <definedName name="EXPTIMET">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, MOD(_xlpm.totalSeconds, 60), _xlpm.formattedY, _xlpm.y &amp; "y", _xlpm.formattedD, _xlpm.d &amp; "d", _xlpm.formattedH, _xlpm.h &amp; "h", _xlpm.formattedM, _xlpm.m &amp; "m", _xlpm.formattedS, INT(_xlpm.s * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces &amp; "s", _xlpm.formatText, _xlfn.TEXTJOIN(" ", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatText, "Invalid Input")))</definedName>
+    <definedName name="TimeCalculations.TIMEDIFFD">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.diffHours, _xlpm.diffSec / 3600, ROUND(_xlpm.diffHours, 9)))</definedName>
+    <definedName name="TimeCalculations.TIMEDIFFS">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.hh, INT(_xlpm.diffSec / 3600), _xlpm.mm, INT(MOD(_xlpm.diffSec, 3600) / 60), _xlpm.ss, MOD(_xlpm.diffSec, 60), TEXT(_xlpm.hh, "00") &amp; ":" &amp; TEXT(_xlpm.mm, "00") &amp; ":" &amp; TEXT(_xlpm.ss, "00")))</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,8 +43,37 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -71,8 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,18 +474,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="5" t="str" cm="1">
+        <f t="array" ref="B2">EXPTIMET("H",1.999999997,,3)</f>
+        <v>0y 0d 1h 59m 59.999s</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=EXPTIMET("H",1.999999997,,3)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">EXPTIMEF("H",1.999999997,3)</f>
+        <v>00:000:01:59:59.999</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=EXPTIMEF("H",1.999999997,3)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2" cm="1">
+        <f t="array" ref="B5">DECTIME("H",0,0,1,59,59.999)</f>
+        <v>1.9999997222222223</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+        <v>=DECTIME("H",0,0,1,59,59.999)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2" t="str" cm="1">
+        <f t="array" ref="B6">DECTIMEF("H",0,0,1,59,59.999)</f>
+        <v>1.999999722h</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=DECTIMEF("H",0,0,1,59,59.999)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">DECTIME("h",,,1,59,59.99999)</f>
+        <v>1.9999999972222222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAKAB5ACoAMwA2ADUALgAyADUAKQAgACsAIABkACAAKwAgACgAaAAvADIANAApACAAKwAgACgAbQAvADEANAA0ADAAKQAgACsAIAAoAHMALwA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgAHkAIAArACAAKABkAC8AMwA2ADUALgAyADUAKQAgACsAIAAoAGgALwA4ADcANgA2ACkAIAArACAAKABtAC8ANQAyADUAOQA2ADAAKQAgACsAIAAoAHMALwAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASQBuAHYAYQBsAGkAZAAgAFUAbgBpAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEMAVABJAE0ARQBGACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAKAB5ACoAMwA2ADUALgAyADUAKQAgACsAIABkACAAKwAgACgAaAAvADIANAApACAAKwAgACgAbQAvADEANAA0ADAAKQAgACsAIAAoAHMALwA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgAHkAIAArACAAKABkAC8AMwA2ADUALgAyADUAKQAgACsAIAAoAGgALwA4ADcANgA2ACkAIAArACAAKABtAC8ANQAyADUAOQA2ADAAKQAgACsAIAAoAHMALwAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASQBuAHYAYQBsAGkAZAAgAFUAbgBpAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHgAZQBkACgAcgBlAHMAdQBsAHQALAA5ACkAJgBMAE8AVwBFAFIAKABjAG8AZABlACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARQBYAFAAVABJAE0ARQBUACAAPQAgAEwAQQBNAEIARABBACgAdQBuAGkAdAAsACAAdgBhAGwAdQBlACwAIABbAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwBdACwAIABbAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAG4AYwBsAHUAZABlAFoAZQByAG8ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACkALAAgAFQAUgBVAEUALAAgAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAB1AG4AaQB0ACwAIABVAFAAUABFAFIAKAB1AG4AaQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByACwAIABTAFcASQBUAEMASAAoAHUAbgBpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgADMAMQA1ADUANwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAOAA2ADQAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEgAXAAiACwAIAAzADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAA2ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADEALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAB2AGEAbAB1AGUAIAAqACAAZgBhAGMAdABvAHIALABcAG4AIAAgACAAIAAgACAAIAAgAHkALAAgAEkATgBUACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMAIAAvACAAMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAMwAxADUANQA3ADYAMAAwACkAIAAvACAAOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAOAA2ADQAMAAwACkAIAAvACAAMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAAUgBPAFUATgBEACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsACAAIAAvAC8AIABSAG8AdQBuAGQAIAB0AG8AIAB1AHMAZQByAC0AZABlAGYAaQBuAGUAZAAgAGQAZQBjAGkAbQBhAGwAcwBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIAB5ACAAJgAgAFwAIgB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAZAAgACYAIABcACIAZABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAGgAIAAmACAAXAAiAGgAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABtACAAJgAgAFwAIgBtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwAsACAAcwAgACYAIABcACIAcwBcACIALAAgACAALwAvACAAUABhAHMAcwAgAHIAbwB1AG4AZABlAGQAIAB2AGEAbAB1AGUAIABkAGkAcgBlAGMAdABsAHkAIAAoAGYAdQB0AHUAcgBlAC0AcAByAG8AbwBmAGkAbgBnACEAKQBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdABUAGUAeAB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAIABcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAHkAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQAWQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABkACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEQALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAaAAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABIACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAG0AIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQATQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFwAIgBJAG4AdgBhAGwAaQBkACAASQBuAHAAdQB0AFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBFAFgAUABUAEkATQBFAEYAIAA9ACAATABBAE0AQgBEAEEAKAB1AG4AaQB0ACwAIAB2AGEAbAB1AGUALAAgAFsAaQBuAGMAbAB1AGQAZQBaAGUAcgBvAF0ALAAgAFsAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsACAAVABSAFUARQAsACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAIAAzACwAIABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHUAbgBpAHQALAAgAFUAUABQAEUAUgAoAHUAbgBpAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAMQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAASQBOAFQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC8AIAAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADEANQA1ADcANgAwADAAKQAgAC8AIAA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAA4ADYANAAwADAAKQAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAMwA2ADAAMAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABSAE8AVQBOAEQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAA2ADAAKQAsACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAIAAgAC8ALwAgAFIAbwB1AG4AZAAgAHQAbwAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAZABlAGMAaQBtAGEAbABzAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABUAEUAWABUACgAZAAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAVABFAFgAVAAoAGgALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAFQARQBYAFQAKABtACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABzACwAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdABOAHUAbQBlAHIAaQBjACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAOgBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAHkAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQAWQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABkACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEQALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAaAAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABIACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAG0AIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQATQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAGYAbwByAG0AYQB0AE4AdQBtAGUAcgBpAGMALAAgAFwAIgBJAG4AdgBhAGwAaQBkACAASQBuAHAAdQB0AFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBEAEUAQwBUAEkATQBFACIALAAiAEQARQBDAFQASQBNAEUARgAiACwAIgBFAFgAUABUAEkATQBFAFQAIgAsACIARQBYAFAAVABJAE0ARQBGACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAeQAgACsAIAAoAGQALwAzADYANQAuADIANQApACAAKwAgACgAaAAvADgANwA2ADYAKQAgACsAIAAoAG0ALwA1ADIANQA5ADYAMAApACAAKwAgACgAcwAvADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAVQBuAGkAdABcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AbQAvADYAMABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBDAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFsAeQBdACwAWwBkAF0ALABbAGgAXQAsAFsAbQBdACwAWwBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAATgAoAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAATgAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAATgAoAGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAATgAoAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAATgAoAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsACAAVQBQAFAARQBSACgASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABpAG4AcAB1AHQALAAgAFwAIgBZAEQASABNAFMAXAAiACkAKQAsACAAaQBuAHAAdQB0ACwAIABcACIAUwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgACgAeQAqADMAMQA1ADUANwA2ADAAMAApACAAKwAgACgAZAAqADgANgA0ADAAMAApACAAKwAgACgAaAAqADMANgAwADAAKQAgACsAIAAoAG0AKgA2ADAAKQAgACsAIABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAKAB5ACoANQAyADUAOQA2ADAAKQAgACsAIAAoAGQAKgAxADQANAAwACkAIAArACAAKABoACoANgAwACkAIAArACAAbQAgACsAIAAoAHMALwA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgACgAeQAqADgANwA2ADYAKQAgACsAIAAoAGQAKgAyADQAKQAgACsAIABoACAAKwAgACgAbQAvADYAMAApACAAKwAgACgAcwAvADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAB5ACAAKwAgACgAZAAvADMANgA1AC4AMgA1ACkAIAArACAAKABoAC8AOAA3ADYANgApACAAKwAgACgAbQAvADUAMgA1ADkANgAwACkAIAArACAAKABzAC8AMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABVAG4AaQB0AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQB4AGUAZAAoAHIAZQBzAHUAbAB0ACwAOQApACYATABPAFcARQBSACgAYwBvAGQAZQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEUAWABQAFQASQBNAEUAVAAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBpAG4AYwBsAHUAZABlAFoAZQByAG8AXQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAIABUAFIAVQBFACwAIABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdQBuAGkAdAAsACAAVQBQAFAARQBSACgAdQBuAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgAsACAAUwBXAEkAVABDAEgAKAB1AG4AaQB0ACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAAzADEANQA1ADcANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgADgANgA0ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAMwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAANgAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAXAAiACwAIAAxACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAdgBhAGwAdQBlACAAKgAgAGYAYQBjAHQAbwByACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMAMQA1ADUANwA2ADAAMAApACAALwAgADgANgA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADgANgA0ADAAMAApACAALwAgADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADYAMAAwACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMALAAgAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADYAMAApACwAXABuAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAHkAIAAmACAAXAAiAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABkACAAJgAgAFwAIgBkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAaAAgACYAIABcACIAaABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAG0AIAAmACAAXAAiAG0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABpAG4AdAAoAHMAKgAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALwAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACAAJgAgAFwAIgBzAFwAIgAsACAAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQAgACgAZgB1AHQAdQByAGUALQBwAHIAbwBvAGYAaQBuAGcAIQApAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAgAFwAIgAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAeQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAGQAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABoACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAbQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAZgBvAHIAbQBhAHQAVABlAHgAdAAsACAAXAAiAEkAbgB2AGEAbABpAGQAIABJAG4AcAB1AHQAXAAiACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEUAWABQAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADEANAA0ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIAByAGEAdwAgAHUAbgBpAHQAcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwByAGEAdwBTACwAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC0AIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAUwAsACAATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAdwBNACwAIABNAE8ARAAoAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEgAbwB1AHIAcwAsACAASQBOAFQAKAB0AG8AdABhAGwATQBpAG4AdQB0AGUAcwAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcASAAsACAATQBPAEQAKAB0AG8AdABhAGwASABvAHUAcgBzACwAIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEQAYQB5AHMALAAgAEkATgBUACgAdABvAHQAYQBsAEgAbwB1AHIAcwAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcARAAsACAATQBPAEQAKAB0AG8AdABhAGwARABhAHkAcwAsACAAMwA2ADUALgAyADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAWQAsACAASQBOAFQAKAB0AG8AdABhAGwARABhAHkAcwAgAC8AIAAzADYANQAuADIANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAASABhAG4AZABsAGUAIABjAGEAcgByAHkAbwB2AGUAcgAgAGYAbwByACAAbQBpAG4AdQB0AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBIACwAIABJAEYAKAByAGEAdwBNACAAPgA9ACAANgAwACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkARgAoAHIAYQB3AE0AIAA+AD0AIAA2ADAALAAgADAALAAgAHIAYQB3AE0AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGgAbwB1AHIAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBEACwAIABJAEYAKAByAGEAdwBIACAAKwAgAGMAYQByAHIAeQBIACAAPgA9ACAAMgA0ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkARgAoAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAIAA+AD0AIAAyADQALAAgADAALAAgAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIABjAGEAcgByAHkAWQAsACAASQBGACgAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAAgAD4APQAgADMANgA1AC4AMgA1ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkARgAoAHIAYQB3AEQAIAArACAAYwBhAHIAcgB5AEQAIAA+AD0AIAAzADYANQAuADIANQAsACAAMAAsACAAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAApACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIAByAGEAdwBZACAAKwAgAGMAYQByAHIAeQBZACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAZAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAaAAsACAAXAAiADAAMABcACIAKQAgACYAIABcACIAOgBcACIAIAAmACAAVABFAFgAVAAoAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAGkAbgB0ACgAcgBhAHcAUwAqADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAvADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXABuACAAIAAgACAAIAAgACAAIAAvAC8AcgBhAHcAUwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAFQAaQBtAGUAQwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAIgAsACIAdABlAHgAdAAiADoAIgBUAEkATQBFAEQASQBGAEYAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAdAAsACAAZQBuAGQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB0AGEAcgB0AFMAZQBjACwAIABIAE8AVQBSACgAcwB0AGEAcgB0ACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAHMAdABhAHIAdAApACAAKgAgADYAMAAgACsAIABTAEUAQwBPAE4ARAAoAHMAdABhAHIAdAApACwAXABuACAAIAAgACAAIAAgACAAIABlAG4AZABTAGUAYwAsACAASABPAFUAUgAoAGUAbgBkACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAGUAbgBkACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAGYAZgBTAGUAYwAsACAATQBPAEQAKABlAG4AZABTAGUAYwAgAC0AIABzAHQAYQByAHQAUwBlAGMALAAgADgANgA0ADAAMAApACwAIAAgAC8ALwAgAEgAYQBuAGQAbABlAHMAIABjAHIAbwBzAHMAaQBuAGcAIABtAGkAZABuAGkAZwBoAHQAXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAEkATgBUACgAZABpAGYAZgBTAGUAYwAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbQAsACAASQBOAFQAKABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBzACwAIABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAaABoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAbQBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAcwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQASQBNAEUARABJAEYARgBEACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgB0ACwAIABlAG4AZAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAUwBlAGMALAAgAEgATwBVAFIAKABzAHQAYQByAHQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAcwB0AGEAcgB0ACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGUAbgBkAFMAZQBjACwAIABIAE8AVQBSACgAZQBuAGQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAZQBuAGQAKQAgACoAIAA2ADAAIAArACAAUwBFAEMATwBOAEQAKABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIABkAGkAZgBmAFMAZQBjACwAIABNAE8ARAAoAGUAbgBkAFMAZQBjACAALQAgAHMAdABhAHIAdABTAGUAYwAsACAAOAA2ADQAMAAwACkALAAgACAALwAvACAASABhAG4AZABsAGUAcwAgAGMAcgBvAHMAcwBpAG4AZwAgAG0AaQBkAG4AaQBnAGgAdABcAG4AIAAgACAAIAAgACAAIAAgAGQAaQBmAGYASABvAHUAcgBzACwAIABkAGkAZgBmAFMAZQBjACAALwAgADMANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAGQAaQBmAGYASABvAHUAcgBzACwAIAA5ACkAIAAgAC8ALwAgAEsAZQBlAHAAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEQARQBDAFQASQBNAEUAIgAsACIARABFAEMAVABJAE0ARQBGACIALAAiAEUAWABQAFQASQBNAEUAVAAiACwAIgBFAFgAUABUAEkATQBFAEYAIgAsACIAVABpAG0AZQBDAGEAbABjAHUAbABhAHQAaQBvAG4AcwAuAFQASQBNAEUARABJAEYARgBTACIALAAiAFQAaQBtAGUAQwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMALgBUAEkATQBFAEQASQBGAEYARAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
